--- a/Informacion Swell/Ejemplo Caja Trade.xlsx
+++ b/Informacion Swell/Ejemplo Caja Trade.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oserna\Documents\GitHub\Swell_2_Optimizacion_estrategias\Informacion Swell\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDSG\Wissen\GitHub\Swell_2_Optimizacion_estrategias\Informacion Swell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96A79269-11BE-4C21-9524-C5A1B5E1F4D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6181412-44BA-44DD-9F67-C679AB181FF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6ABA33D2-A0D7-CB4A-BB07-213132C369DB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{6ABA33D2-A0D7-CB4A-BB07-213132C369DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>Inv Inicial (USD)</t>
   </si>
@@ -84,16 +84,30 @@
   </si>
   <si>
     <t>Ejempo 1.1</t>
+  </si>
+  <si>
+    <t>1. Apalancamiento objetivo o limite?</t>
+  </si>
+  <si>
+    <t>Rentabilidad acumulada</t>
+  </si>
+  <si>
+    <t>2. Reinversion es sobre monto inicial o sobre monto anterior?</t>
+  </si>
+  <si>
+    <t>Apalancamiento</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -109,33 +123,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="8"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -147,24 +181,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Moneda [0]" xfId="1" builtinId="7"/>
+  <cellStyles count="4">
+    <cellStyle name="Comma" xfId="3" builtinId="3"/>
+    <cellStyle name="Currency [0]" xfId="1" builtinId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -180,7 +218,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -476,31 +514,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A4BE5D2-DEDC-AB4F-88AB-AE0F217DD8A9}">
-  <dimension ref="B3:F35"/>
+  <dimension ref="B3:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2"/>
-    <col min="2" max="2" width="14.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.875" style="2"/>
+    <col min="1" max="1" width="1" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.8984375" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>150000</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -508,55 +548,70 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <f>C3*C4</f>
         <v>1050000</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E12" s="4">
+      <c r="F10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I11" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E12" s="5">
         <f>C3</f>
         <v>150000</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
+      <c r="G12" s="7">
+        <f>C13/E12</f>
+        <v>7</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <f t="shared" ref="C13:C18" si="0">$C$5</f>
         <v>1050000</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>-10000</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="5">
         <f t="shared" ref="E13:E18" si="1">E12+D13</f>
         <v>140000</v>
       </c>
@@ -564,19 +619,23 @@
         <f t="shared" ref="F13:F18" si="2">E13/$E$12-1</f>
         <v>-6.6666666666666652E-2</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
+      <c r="G13" s="7">
+        <f>C14/E13</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>1050000</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>-20000</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="5">
         <f t="shared" si="1"/>
         <v>120000</v>
       </c>
@@ -584,19 +643,23 @@
         <f t="shared" si="2"/>
         <v>-0.19999999999999996</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
+      <c r="G14" s="7">
+        <f t="shared" ref="G14:G17" si="3">C15/E14</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <f t="shared" si="0"/>
         <v>1050000</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>-50000</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="5">
         <f t="shared" si="1"/>
         <v>70000</v>
       </c>
@@ -604,19 +667,23 @@
         <f t="shared" si="2"/>
         <v>-0.53333333333333333</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
+      <c r="G15" s="7">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <f t="shared" si="0"/>
         <v>1050000</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>30000</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="5">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
@@ -624,19 +691,23 @@
         <f t="shared" si="2"/>
         <v>-0.33333333333333337</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
+      <c r="G16" s="7">
+        <f t="shared" si="3"/>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <f t="shared" si="0"/>
         <v>1050000</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>-70000</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="5">
         <f t="shared" si="1"/>
         <v>30000</v>
       </c>
@@ -644,19 +715,23 @@
         <f t="shared" si="2"/>
         <v>-0.8</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
+      <c r="G17" s="7">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <f t="shared" si="0"/>
         <v>1050000</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>-30000</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -665,164 +740,195 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E27" s="4">
+      <c r="G25" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E27" s="5">
         <f>C3</f>
         <v>150000</v>
       </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
+      <c r="G27" s="8">
+        <f t="shared" ref="G27:G33" si="4">C28/E27</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="3">
-        <f t="shared" ref="C28:C33" si="3">$C$5</f>
-        <v>1050000</v>
-      </c>
-      <c r="D28" s="3">
+      <c r="C28" s="2">
+        <f t="shared" ref="C28:C33" si="5">$C$5</f>
+        <v>1050000</v>
+      </c>
+      <c r="D28" s="2">
         <v>10000</v>
       </c>
-      <c r="E28" s="4">
-        <f t="shared" ref="E28:E33" si="4">E27+D28</f>
+      <c r="E28" s="5">
+        <f t="shared" ref="E28:E33" si="6">E27+D28</f>
         <v>160000</v>
       </c>
       <c r="F28" s="6">
-        <f t="shared" ref="F28:F33" si="5">E28/$E$12-1</f>
+        <f t="shared" ref="F28:F33" si="7">E28/$E$12-1</f>
         <v>6.6666666666666652E-2</v>
       </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B29" s="2" t="s">
+      <c r="G28" s="8">
+        <f t="shared" si="4"/>
+        <v>6.5625</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="3">
-        <f t="shared" si="3"/>
-        <v>1050000</v>
-      </c>
-      <c r="D29" s="3">
+      <c r="C29" s="2">
+        <f t="shared" si="5"/>
+        <v>1050000</v>
+      </c>
+      <c r="D29" s="2">
         <v>20000</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="5">
+        <f t="shared" si="6"/>
+        <v>180000</v>
+      </c>
+      <c r="F29" s="6">
+        <f t="shared" si="7"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="G29" s="8">
         <f t="shared" si="4"/>
-        <v>180000</v>
-      </c>
-      <c r="F29" s="6">
+        <v>5.833333333333333</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="2">
         <f t="shared" si="5"/>
-        <v>0.19999999999999996</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="3">
-        <f t="shared" si="3"/>
-        <v>1050000</v>
-      </c>
-      <c r="D30" s="3">
+        <v>1050000</v>
+      </c>
+      <c r="D30" s="2">
         <v>50000</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="5">
+        <f t="shared" si="6"/>
+        <v>230000</v>
+      </c>
+      <c r="F30" s="6">
+        <f t="shared" si="7"/>
+        <v>0.53333333333333344</v>
+      </c>
+      <c r="G30" s="8">
         <f t="shared" si="4"/>
-        <v>230000</v>
-      </c>
-      <c r="F30" s="6">
+        <v>4.5652173913043477</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="2">
         <f t="shared" si="5"/>
-        <v>0.53333333333333344</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="3">
-        <f t="shared" si="3"/>
-        <v>1050000</v>
-      </c>
-      <c r="D31" s="3">
+        <v>1050000</v>
+      </c>
+      <c r="D31" s="2">
         <v>-30000</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="5">
+        <f t="shared" si="6"/>
+        <v>200000</v>
+      </c>
+      <c r="F31" s="6">
+        <f t="shared" si="7"/>
+        <v>0.33333333333333326</v>
+      </c>
+      <c r="G31" s="8">
         <f t="shared" si="4"/>
-        <v>200000</v>
-      </c>
-      <c r="F31" s="6">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="2">
         <f t="shared" si="5"/>
-        <v>0.33333333333333326</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="3">
-        <f t="shared" si="3"/>
-        <v>1050000</v>
-      </c>
-      <c r="D32" s="3">
+        <v>1050000</v>
+      </c>
+      <c r="D32" s="2">
         <v>70000</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="5">
+        <f t="shared" si="6"/>
+        <v>270000</v>
+      </c>
+      <c r="F32" s="6">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="G32" s="8">
         <f t="shared" si="4"/>
-        <v>270000</v>
-      </c>
-      <c r="F32" s="6">
+        <v>3.8888888888888888</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="2">
         <f t="shared" si="5"/>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="3">
-        <f t="shared" si="3"/>
-        <v>1050000</v>
-      </c>
-      <c r="D33" s="3">
+        <v>1050000</v>
+      </c>
+      <c r="D33" s="2">
         <v>-30000</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="5">
+        <f t="shared" si="6"/>
+        <v>240000</v>
+      </c>
+      <c r="F33" s="6">
+        <f t="shared" si="7"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="G33" s="8">
         <f t="shared" si="4"/>
-        <v>240000</v>
-      </c>
-      <c r="F33" s="6">
-        <f t="shared" si="5"/>
-        <v>0.60000000000000009</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>